--- a/serve_static/eval/maps.xlsx
+++ b/serve_static/eval/maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni Google Drive\Coverage Game (UROP)\Python\covmax2\serve_static\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2D502-5410-40F0-B1FC-00AA66D6DC5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C91FC7-1B49-4F06-95C2-DFB9E84CDECE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11568" yWindow="912" windowWidth="10092" windowHeight="12468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="maps" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="55">
   <si>
     <t>Config 1</t>
   </si>
@@ -118,20 +118,89 @@
     <t>2 (High Noise)</t>
   </si>
   <si>
-    <t>Last Config</t>
-  </si>
-  <si>
     <t>Horizon (80 turns)</t>
   </si>
   <si>
     <t>Horizon (60 turns)</t>
+  </si>
+  <si>
+    <t>Last Config (80 turns)</t>
+  </si>
+  <si>
+    <t>Last Config (60 turns)</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val(x) = 7-(a+b+c+d+e+f+x) </t>
+  </si>
+  <si>
+    <t>how does val correspond to probability'?</t>
+  </si>
+  <si>
+    <t>x = b * f(val(x), val(b))</t>
+  </si>
+  <si>
+    <t>average val = sigma(x, val(x)*x)</t>
+  </si>
+  <si>
+    <t>val(b)=3-a-b-c</t>
+  </si>
+  <si>
+    <t>val(c)=3-a-b-c</t>
+  </si>
+  <si>
+    <t>a+b+c+d=4</t>
+  </si>
+  <si>
+    <t>val(a)=4-a-b-c-d</t>
+  </si>
+  <si>
+    <t>x=1</t>
+  </si>
+  <si>
+    <t>val(d)=2-a-d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b=a* 1/(1+e^([3-a-b-c-4-a-b-c-d])) + c* 1/(1+e^([3-a-b-c-3-a-b-c]))  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c=a* 1/(1+e^([3-a-b-c-4-a-b-c-d])) + b* 1/(1+e^([3-a-b-c-3-a-b-c]))  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a=b* 1/(1+e^([4-a-b-c-d-3-a-b-c])) + c* 1/(1+e^([4-a-b-c-d-3-a-b-c]))  +  d* 1/(1+e^([4-a-b-c-d-2-a-d])) </t>
+  </si>
+  <si>
+    <t>d=a* 1/(1+e^([4-a-b-c-d-2-a-d]))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +355,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +602,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -768,7 +851,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -820,6 +903,55 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1185,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS21"/>
+  <dimension ref="A1:DB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="83" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="R21" sqref="Q19:R21"/>
+    <sheetView tabSelected="1" topLeftCell="CK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DH1" sqref="DH1:DN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,7 +1329,7 @@
     <col min="56" max="64" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:106" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28"/>
       <c r="B1" s="1">
         <v>0</v>
@@ -1373,8 +1505,54 @@
         <v>0</v>
       </c>
       <c r="BS1" s="26"/>
+      <c r="BZ1" s="51">
+        <v>1</v>
+      </c>
+      <c r="CA1" s="52">
+        <v>0</v>
+      </c>
+      <c r="CB1" s="52">
+        <v>0</v>
+      </c>
+      <c r="CC1" s="53">
+        <v>1</v>
+      </c>
+      <c r="CD1" s="52">
+        <v>0</v>
+      </c>
+      <c r="CE1" s="54"/>
+      <c r="CF1" s="55">
+        <v>1</v>
+      </c>
+      <c r="CT1">
+        <v>0</v>
+      </c>
+      <c r="CU1">
+        <v>0</v>
+      </c>
+      <c r="CV1">
+        <v>0</v>
+      </c>
+      <c r="CW1">
+        <v>0</v>
+      </c>
+      <c r="CX1">
+        <v>0</v>
+      </c>
+      <c r="CY1">
+        <v>0</v>
+      </c>
+      <c r="CZ1">
+        <v>0</v>
+      </c>
+      <c r="DA1">
+        <v>0</v>
+      </c>
+      <c r="DB1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:71" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:106" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28"/>
       <c r="B2" s="8">
         <v>0</v>
@@ -1554,8 +1732,56 @@
       <c r="BS2" s="10">
         <v>1</v>
       </c>
+      <c r="BZ2" s="56">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="57">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="57">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="58">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="58">
+        <v>1</v>
+      </c>
+      <c r="CE2" s="57">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:71" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:106" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="8">
         <v>0</v>
@@ -1723,8 +1949,56 @@
       <c r="BS3" s="10">
         <v>1</v>
       </c>
+      <c r="BZ3" s="56">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="58">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>1</v>
+      </c>
+      <c r="CX3">
+        <v>1</v>
+      </c>
+      <c r="CY3">
+        <v>1</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:71" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:106" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="8">
         <v>0</v>
@@ -1898,8 +2172,54 @@
       <c r="BS4" s="10">
         <v>1</v>
       </c>
+      <c r="BZ4" s="60">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="58">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="57">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="61"/>
+      <c r="CD4" s="57">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="58">
+        <v>1</v>
+      </c>
+      <c r="CF4" s="62">
+        <v>1</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>1</v>
+      </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>1</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>1</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:106" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="12">
         <v>1</v>
@@ -2075,8 +2395,64 @@
       <c r="BS5" s="11">
         <v>0</v>
       </c>
+      <c r="BZ5" s="56">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="57">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="57">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="57">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="CE5" s="58">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="CJ5" s="57"/>
+      <c r="CK5" s="58"/>
+      <c r="CL5" s="59"/>
+      <c r="CM5" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="CN5" s="67"/>
+      <c r="CO5" s="67"/>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>1</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:106" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="13">
         <v>1</v>
@@ -2230,8 +2606,64 @@
       <c r="BS6" s="11">
         <v>0</v>
       </c>
+      <c r="BZ6" s="56">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="57">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="58">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="58">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE6" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="CF6" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="CJ6" s="57"/>
+      <c r="CM6" s="66"/>
+      <c r="CN6" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO6" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>1</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>1</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>1</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:106" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2361,10 +2793,66 @@
       <c r="BS7" s="16">
         <v>1</v>
       </c>
+      <c r="BZ7" s="63">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="64">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="64">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="65">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="CE7" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="CF7" s="66">
+        <v>1</v>
+      </c>
+      <c r="CJ7" s="64"/>
+      <c r="CM7" s="66"/>
+      <c r="CN7" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="CO7" s="66">
+        <v>1</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>1</v>
+      </c>
+      <c r="CV7">
+        <v>1</v>
+      </c>
+      <c r="CW7">
+        <v>1</v>
+      </c>
+      <c r="CX7">
+        <v>1</v>
+      </c>
+      <c r="CY7">
+        <v>1</v>
+      </c>
+      <c r="CZ7">
+        <v>1</v>
+      </c>
+      <c r="DA7">
+        <v>1</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.3">
       <c r="J8" s="50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S8" t="s">
         <v>26</v>
@@ -2381,8 +2869,35 @@
       <c r="BM8" t="s">
         <v>26</v>
       </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -2401,6 +2916,12 @@
       <c r="L9">
         <v>6</v>
       </c>
+      <c r="M9">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
       <c r="P9" t="s">
         <v>27</v>
       </c>
@@ -2413,6 +2934,12 @@
       <c r="U9">
         <v>6</v>
       </c>
+      <c r="V9">
+        <v>50</v>
+      </c>
+      <c r="W9" t="s">
+        <v>3</v>
+      </c>
       <c r="Y9" t="s">
         <v>27</v>
       </c>
@@ -2425,7 +2952,10 @@
       <c r="AD9">
         <v>6</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AE9">
+        <v>50</v>
+      </c>
+      <c r="AG9" t="s">
         <v>27</v>
       </c>
       <c r="AJ9">
@@ -2437,7 +2967,10 @@
       <c r="AL9">
         <v>6</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AM9">
+        <v>50</v>
+      </c>
+      <c r="AO9" t="s">
         <v>27</v>
       </c>
       <c r="AS9">
@@ -2449,7 +2982,10 @@
       <c r="AU9">
         <v>6</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AV9">
+        <v>50</v>
+      </c>
+      <c r="AX9" t="s">
         <v>27</v>
       </c>
       <c r="BD9" t="s">
@@ -2467,14 +3003,17 @@
       <c r="BN9">
         <v>3</v>
       </c>
-      <c r="BO9" t="s">
-        <v>5</v>
-      </c>
-      <c r="BP9" t="s">
+      <c r="BO9">
+        <v>6</v>
+      </c>
+      <c r="BP9">
+        <v>50</v>
+      </c>
+      <c r="BR9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>0</v>
       </c>
@@ -2504,7 +3043,7 @@
         <v>27.45</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>26.38</v>
       </c>
       <c r="P10">
         <v>28</v>
@@ -2519,7 +3058,10 @@
         <v>28.5</v>
       </c>
       <c r="V10">
-        <v>27.53</v>
+        <v>26.38</v>
+      </c>
+      <c r="X10" s="22">
+        <v>50</v>
       </c>
       <c r="Y10">
         <v>29</v>
@@ -2534,6 +3076,9 @@
         <v>18.899999999999999</v>
       </c>
       <c r="AE10">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="AG10">
         <v>20</v>
       </c>
       <c r="AJ10">
@@ -2546,6 +3091,9 @@
         <v>22.8</v>
       </c>
       <c r="AM10">
+        <v>23.06</v>
+      </c>
+      <c r="AO10">
         <v>26</v>
       </c>
       <c r="AS10">
@@ -2558,6 +3106,9 @@
         <v>25.6</v>
       </c>
       <c r="AV10">
+        <v>26.5</v>
+      </c>
+      <c r="AX10">
         <v>28</v>
       </c>
       <c r="BD10">
@@ -2580,10 +3131,13 @@
         <v>27.25</v>
       </c>
       <c r="BP10">
+        <v>27.25</v>
+      </c>
+      <c r="BR10">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>1</v>
       </c>
@@ -2613,7 +3167,7 @@
         <v>25.25</v>
       </c>
       <c r="M11">
-        <v>25.53</v>
+        <v>24.81</v>
       </c>
       <c r="S11">
         <v>25.41</v>
@@ -2625,7 +3179,7 @@
         <v>25.55</v>
       </c>
       <c r="V11">
-        <v>23.21</v>
+        <v>24.81</v>
       </c>
       <c r="AB11">
         <v>16.88</v>
@@ -2636,6 +3190,9 @@
       <c r="AD11">
         <v>18.399999999999999</v>
       </c>
+      <c r="AE11">
+        <v>18.75</v>
+      </c>
       <c r="AJ11">
         <v>20.47</v>
       </c>
@@ -2645,6 +3202,9 @@
       <c r="AL11">
         <v>22.4</v>
       </c>
+      <c r="AM11">
+        <v>21.44</v>
+      </c>
       <c r="AS11">
         <v>22.38</v>
       </c>
@@ -2653,6 +3213,9 @@
       </c>
       <c r="AU11">
         <v>22.4</v>
+      </c>
+      <c r="AV11">
+        <v>22.38</v>
       </c>
       <c r="BD11">
         <v>19.88</v>
@@ -2673,8 +3236,11 @@
       <c r="BO11">
         <v>25.85</v>
       </c>
+      <c r="BP11">
+        <v>25.81</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>2</v>
       </c>
@@ -2704,7 +3270,7 @@
         <v>21.15</v>
       </c>
       <c r="M12">
-        <v>21.68</v>
+        <v>21.19</v>
       </c>
       <c r="S12">
         <v>23.59</v>
@@ -2716,7 +3282,7 @@
         <v>23.65</v>
       </c>
       <c r="V12">
-        <v>21.79</v>
+        <v>21.19</v>
       </c>
       <c r="AB12">
         <v>15.65</v>
@@ -2727,6 +3293,9 @@
       <c r="AD12">
         <v>17.8</v>
       </c>
+      <c r="AE12">
+        <v>16.62</v>
+      </c>
       <c r="AJ12">
         <v>17.41</v>
       </c>
@@ -2736,6 +3305,9 @@
       <c r="AL12">
         <v>17.399999999999999</v>
       </c>
+      <c r="AM12">
+        <v>17.690000000000001</v>
+      </c>
       <c r="AS12">
         <v>20.309999999999999</v>
       </c>
@@ -2744,6 +3316,9 @@
       </c>
       <c r="AU12">
         <v>19.75</v>
+      </c>
+      <c r="AV12">
+        <v>20.190000000000001</v>
       </c>
       <c r="BD12">
         <v>12.9</v>
@@ -2764,268 +3339,802 @@
       <c r="BO12">
         <v>25</v>
       </c>
+      <c r="BP12">
+        <v>25</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="J13" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>41</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:106" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="J14">
+        <v>25.75</v>
+      </c>
+      <c r="K14">
+        <v>27</v>
+      </c>
+      <c r="L14">
+        <v>27.3</v>
+      </c>
+      <c r="M14">
+        <v>26.5</v>
+      </c>
+      <c r="N14">
+        <v>26.84</v>
+      </c>
+      <c r="S14">
+        <v>25.95</v>
+      </c>
+      <c r="T14">
+        <v>24.24</v>
+      </c>
+      <c r="U14">
+        <v>27.95</v>
+      </c>
+      <c r="V14">
+        <v>25.94</v>
+      </c>
+      <c r="W14">
+        <v>25.47</v>
+      </c>
+      <c r="AB14">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="AC14">
+        <v>17.57</v>
+      </c>
+      <c r="AD14">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="AE14">
+        <v>17.88</v>
+      </c>
+      <c r="AF14">
+        <v>17.84</v>
+      </c>
+      <c r="AJ14">
+        <v>22.15</v>
+      </c>
+      <c r="AK14">
+        <v>23.29</v>
+      </c>
+      <c r="AL14">
+        <v>22.1</v>
+      </c>
+      <c r="AM14">
+        <v>22.31</v>
+      </c>
+      <c r="AN14">
+        <v>22</v>
+      </c>
+      <c r="AS14">
+        <v>24.55</v>
+      </c>
+      <c r="AT14">
+        <v>25.48</v>
+      </c>
+      <c r="AU14">
+        <v>25.3</v>
+      </c>
+      <c r="AV14">
+        <v>25.88</v>
+      </c>
+      <c r="BM14">
+        <v>25.55</v>
+      </c>
+      <c r="BN14">
+        <v>26.95</v>
+      </c>
+      <c r="BO14">
+        <v>26.5</v>
+      </c>
+      <c r="BP14">
+        <v>26.25</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>42</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:106" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="J15">
+        <v>24.5</v>
+      </c>
+      <c r="K15">
+        <v>24.29</v>
+      </c>
+      <c r="L15">
+        <v>23.9</v>
+      </c>
+      <c r="M15">
+        <v>23.81</v>
+      </c>
+      <c r="N15">
+        <v>23.84</v>
+      </c>
+      <c r="S15">
+        <v>23</v>
+      </c>
+      <c r="T15">
+        <v>24.24</v>
+      </c>
+      <c r="U15">
+        <v>24.6</v>
+      </c>
+      <c r="V15">
+        <v>24.94</v>
+      </c>
+      <c r="W15">
+        <v>22.53</v>
+      </c>
+      <c r="AB15">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="AC15">
+        <v>17.38</v>
+      </c>
+      <c r="AD15">
+        <v>17.25</v>
+      </c>
+      <c r="AE15">
+        <v>17.12</v>
+      </c>
+      <c r="AF15">
+        <v>17.11</v>
+      </c>
+      <c r="AJ15">
+        <v>19</v>
+      </c>
+      <c r="AK15">
+        <v>21.67</v>
+      </c>
+      <c r="AL15">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="AM15">
+        <v>20.5</v>
+      </c>
+      <c r="AS15">
+        <v>20.55</v>
+      </c>
+      <c r="AT15">
+        <v>21.14</v>
+      </c>
+      <c r="AU15">
+        <v>21.3</v>
+      </c>
+      <c r="AV15">
+        <v>20.81</v>
+      </c>
+      <c r="BM15">
+        <v>23.9</v>
+      </c>
+      <c r="BN15">
+        <v>24.9</v>
+      </c>
+      <c r="BO15">
+        <v>23.9</v>
+      </c>
+      <c r="BP15">
+        <v>24.69</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>43</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:106" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="J16">
+        <v>17.55</v>
+      </c>
+      <c r="K16">
+        <v>19.36</v>
+      </c>
+      <c r="L16">
+        <v>19.45</v>
+      </c>
+      <c r="M16">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="N16">
+        <v>15.89</v>
+      </c>
+      <c r="S16">
+        <v>21.75</v>
+      </c>
+      <c r="T16">
+        <v>21.95</v>
+      </c>
+      <c r="U16">
+        <v>21.65</v>
+      </c>
+      <c r="V16">
+        <v>20.56</v>
+      </c>
+      <c r="W16">
+        <v>16.84</v>
+      </c>
+      <c r="AB16">
+        <v>14.45</v>
+      </c>
+      <c r="AC16">
+        <v>15.33</v>
+      </c>
+      <c r="AD16">
+        <v>16.05</v>
+      </c>
+      <c r="AE16">
+        <v>15.56</v>
+      </c>
+      <c r="AF16">
+        <v>13.58</v>
+      </c>
+      <c r="AJ16">
+        <v>15.6</v>
+      </c>
+      <c r="AK16">
+        <v>15.95</v>
+      </c>
+      <c r="AL16">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="AM16">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="AS16">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AT16">
+        <v>18.57</v>
+      </c>
+      <c r="AU16">
+        <v>18</v>
+      </c>
+      <c r="AV16">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="BM16">
+        <v>22.9</v>
+      </c>
+      <c r="BN16">
+        <v>24.57</v>
+      </c>
+      <c r="BO16">
+        <v>23.9</v>
+      </c>
+      <c r="BP16">
+        <v>23</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>44</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>21</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J17" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>25</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>23.21</v>
+      </c>
+      <c r="K18">
+        <v>24.02</v>
+      </c>
+      <c r="L18">
+        <v>25</v>
+      </c>
+      <c r="M18">
+        <v>23.92</v>
+      </c>
+      <c r="S18">
+        <v>23.94</v>
+      </c>
+      <c r="T18">
+        <v>24.11</v>
+      </c>
+      <c r="U18">
+        <v>25.67</v>
+      </c>
+      <c r="V18">
+        <v>23.92</v>
+      </c>
+      <c r="AB18">
+        <v>16.87</v>
+      </c>
+      <c r="AC18">
+        <v>16.18</v>
+      </c>
+      <c r="AD18">
+        <v>17.07</v>
+      </c>
+      <c r="AE18">
+        <v>16.62</v>
+      </c>
+      <c r="AJ18">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="AK18">
+        <v>21.09</v>
+      </c>
+      <c r="AL18">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="AM18">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AS18">
+        <v>22.48</v>
+      </c>
+      <c r="AT18">
+        <v>23.24</v>
+      </c>
+      <c r="AU18">
+        <v>22.87</v>
+      </c>
+      <c r="AV18">
+        <v>22.62</v>
+      </c>
+      <c r="BM18">
+        <v>22.03</v>
+      </c>
+      <c r="BN18">
+        <v>22.88</v>
+      </c>
+      <c r="BO18">
+        <v>23.2</v>
+      </c>
+      <c r="BP18">
+        <v>22.69</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>22.14</v>
+      </c>
+      <c r="K19">
+        <v>21.85</v>
+      </c>
+      <c r="L19">
+        <v>21.56</v>
+      </c>
+      <c r="M19">
+        <v>21.04</v>
+      </c>
+      <c r="S19">
+        <v>20.51</v>
+      </c>
+      <c r="T19">
+        <v>20.76</v>
+      </c>
+      <c r="U19">
+        <v>20.67</v>
+      </c>
+      <c r="V19">
+        <v>21.04</v>
+      </c>
+      <c r="AB19">
+        <v>14.12</v>
+      </c>
+      <c r="AC19">
+        <v>15.21</v>
+      </c>
+      <c r="AD19">
+        <v>14.73</v>
+      </c>
+      <c r="AE19">
+        <v>14.38</v>
+      </c>
+      <c r="AJ19">
+        <v>15.81</v>
+      </c>
+      <c r="AK19">
+        <v>17.2</v>
+      </c>
+      <c r="AL19">
+        <v>16.23</v>
+      </c>
+      <c r="AM19">
+        <v>15.85</v>
+      </c>
+      <c r="AS19">
+        <v>17.39</v>
+      </c>
+      <c r="AT19">
+        <v>17.89</v>
+      </c>
+      <c r="AU19">
+        <v>17.86</v>
+      </c>
+      <c r="AV19">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="BM19">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="BN19">
+        <v>20.5</v>
+      </c>
+      <c r="BO19">
+        <v>19.52</v>
+      </c>
+      <c r="BP19">
+        <v>20.37</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>14.49</v>
+      </c>
+      <c r="K20">
+        <v>15.98</v>
+      </c>
+      <c r="L20">
+        <v>16.28</v>
+      </c>
+      <c r="M20">
+        <v>15.64</v>
+      </c>
+      <c r="S20">
+        <v>18.05</v>
+      </c>
+      <c r="T20">
+        <v>17.96</v>
+      </c>
+      <c r="U20">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="V20">
+        <v>15.64</v>
+      </c>
+      <c r="AB20">
+        <v>11.71</v>
+      </c>
+      <c r="AC20">
+        <v>12.75</v>
+      </c>
+      <c r="AD20">
+        <v>13.3</v>
+      </c>
+      <c r="AE20">
+        <v>12.73</v>
+      </c>
+      <c r="AJ20">
+        <v>12.96</v>
+      </c>
+      <c r="AK20">
+        <v>12.89</v>
+      </c>
+      <c r="AL20">
+        <v>13.23</v>
+      </c>
+      <c r="AM20">
+        <v>13.07</v>
+      </c>
+      <c r="AS20">
+        <v>15.19</v>
+      </c>
+      <c r="AT20">
+        <v>15.48</v>
+      </c>
+      <c r="AU20">
+        <v>15.36</v>
+      </c>
+      <c r="AV20">
+        <v>15.35</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM20">
+        <v>18.04</v>
+      </c>
+      <c r="BN20">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="BO20">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="BP20">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="J21" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="BD13" t="s">
-        <v>25</v>
+      <c r="CJ21" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14">
-        <v>23.21</v>
-      </c>
-      <c r="K14">
-        <v>24.02</v>
-      </c>
-      <c r="L14">
-        <v>25</v>
-      </c>
-      <c r="S14">
-        <v>23.94</v>
-      </c>
-      <c r="T14">
-        <v>24.11</v>
-      </c>
-      <c r="U14">
-        <v>25.67</v>
-      </c>
-      <c r="AB14">
+    <row r="22" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>22.26</v>
+      </c>
+      <c r="K22">
+        <v>22.69</v>
+      </c>
+      <c r="L22">
+        <v>23.71</v>
+      </c>
+      <c r="M22">
+        <v>23.03</v>
+      </c>
+      <c r="S22">
+        <v>22.76</v>
+      </c>
+      <c r="T22">
+        <v>22.78</v>
+      </c>
+      <c r="U22">
+        <v>23.73</v>
+      </c>
+      <c r="V22">
+        <v>23.03</v>
+      </c>
+      <c r="AB22">
+        <v>16.02</v>
+      </c>
+      <c r="AC22">
+        <v>15.54</v>
+      </c>
+      <c r="AD22">
+        <v>16.14</v>
+      </c>
+      <c r="AE22">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="AJ22">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="AK22">
+        <v>20.11</v>
+      </c>
+      <c r="AL22">
+        <v>19.38</v>
+      </c>
+      <c r="AM22">
+        <v>19.66</v>
+      </c>
+      <c r="AS22">
+        <v>21.16</v>
+      </c>
+      <c r="AT22">
+        <v>21.96</v>
+      </c>
+      <c r="AU22">
+        <v>21.68</v>
+      </c>
+      <c r="AV22">
+        <v>21.47</v>
+      </c>
+      <c r="BM22">
+        <v>20.23</v>
+      </c>
+      <c r="BN22">
+        <v>20.73</v>
+      </c>
+      <c r="BO22">
+        <v>21.52</v>
+      </c>
+      <c r="BP22">
+        <v>21.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>20.72</v>
+      </c>
+      <c r="K23">
+        <v>20.41</v>
+      </c>
+      <c r="L23">
+        <v>20.28</v>
+      </c>
+      <c r="M23">
+        <v>19.97</v>
+      </c>
+      <c r="S23">
+        <v>18.87</v>
+      </c>
+      <c r="T23">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="U23">
+        <v>18.7</v>
+      </c>
+      <c r="V23">
+        <v>19.97</v>
+      </c>
+      <c r="AB23">
+        <v>13.12</v>
+      </c>
+      <c r="AC23">
+        <v>13.83</v>
+      </c>
+      <c r="AD23">
+        <v>13.25</v>
+      </c>
+      <c r="AE23">
+        <v>13.16</v>
+      </c>
+      <c r="AJ23">
+        <v>14.4</v>
+      </c>
+      <c r="AK23">
+        <v>15.38</v>
+      </c>
+      <c r="AL23">
+        <v>14.38</v>
+      </c>
+      <c r="AM23">
+        <v>14.18</v>
+      </c>
+      <c r="AS23">
+        <v>16.13</v>
+      </c>
+      <c r="AT23">
+        <v>16.48</v>
+      </c>
+      <c r="AU23">
+        <v>16.37</v>
+      </c>
+      <c r="AV23">
+        <v>15.98</v>
+      </c>
+      <c r="BM23">
+        <v>18.75</v>
+      </c>
+      <c r="BN23">
+        <v>18.38</v>
+      </c>
+      <c r="BO23">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="BP23">
+        <v>18.739999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>12.92</v>
+      </c>
+      <c r="K24">
+        <v>14.17</v>
+      </c>
+      <c r="L24">
+        <v>14.82</v>
+      </c>
+      <c r="M24">
+        <v>14.07</v>
+      </c>
+      <c r="S24">
+        <v>16.02</v>
+      </c>
+      <c r="T24">
+        <v>16.07</v>
+      </c>
+      <c r="U24">
+        <v>15.82</v>
+      </c>
+      <c r="V24">
+        <v>14.07</v>
+      </c>
+      <c r="AB24">
+        <v>10.76</v>
+      </c>
+      <c r="AC24">
+        <v>11.54</v>
+      </c>
+      <c r="AD24">
+        <v>11.85</v>
+      </c>
+      <c r="AE24">
+        <v>11.56</v>
+      </c>
+      <c r="AJ24">
+        <v>11.76</v>
+      </c>
+      <c r="AK24">
+        <v>11.51</v>
+      </c>
+      <c r="AL24">
+        <v>11.89</v>
+      </c>
+      <c r="AM24">
+        <v>11.77</v>
+      </c>
+      <c r="AS24">
+        <v>14.16</v>
+      </c>
+      <c r="AT24">
+        <v>14.15</v>
+      </c>
+      <c r="AU24">
+        <v>14.04</v>
+      </c>
+      <c r="AV24">
+        <v>13.96</v>
+      </c>
+      <c r="BM24">
+        <v>15.7</v>
+      </c>
+      <c r="BN24">
+        <v>17.34</v>
+      </c>
+      <c r="BO24">
         <v>16.87</v>
       </c>
-      <c r="AC14">
-        <v>16.18</v>
-      </c>
-      <c r="AD14">
-        <v>17.07</v>
-      </c>
-      <c r="AJ14">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="AK14">
-        <v>21.09</v>
-      </c>
-      <c r="AL14">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="AS14">
-        <v>22.48</v>
-      </c>
-      <c r="AT14">
-        <v>23.24</v>
-      </c>
-      <c r="AU14">
-        <v>22.87</v>
-      </c>
-      <c r="BM14">
-        <v>22.03</v>
-      </c>
-      <c r="BN14">
-        <v>22.88</v>
-      </c>
-      <c r="BO14">
-        <v>23.2</v>
+      <c r="BP24">
+        <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="J15">
-        <v>22.14</v>
-      </c>
-      <c r="K15">
-        <v>21.85</v>
-      </c>
-      <c r="L15">
-        <v>21.56</v>
-      </c>
-      <c r="S15">
-        <v>20.51</v>
-      </c>
-      <c r="T15">
-        <v>20.76</v>
-      </c>
-      <c r="U15">
-        <v>20.67</v>
-      </c>
-      <c r="AB15">
-        <v>14.12</v>
-      </c>
-      <c r="AC15">
-        <v>15.21</v>
-      </c>
-      <c r="AD15">
-        <v>14.73</v>
-      </c>
-      <c r="AJ15">
-        <v>15.81</v>
-      </c>
-      <c r="AK15">
-        <v>17.2</v>
-      </c>
-      <c r="AL15">
-        <v>16.23</v>
-      </c>
-      <c r="AS15">
-        <v>17.39</v>
-      </c>
-      <c r="AT15">
-        <v>17.89</v>
-      </c>
-      <c r="AU15">
-        <v>17.86</v>
-      </c>
-      <c r="BM15">
-        <v>19.920000000000002</v>
-      </c>
-      <c r="BN15">
-        <v>20.5</v>
-      </c>
-      <c r="BO15">
-        <v>19.52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="J16">
-        <v>14.49</v>
-      </c>
-      <c r="K16">
-        <v>15.98</v>
-      </c>
-      <c r="L16">
-        <v>16.28</v>
-      </c>
-      <c r="S16">
-        <v>18.05</v>
-      </c>
-      <c r="T16">
-        <v>17.96</v>
-      </c>
-      <c r="U16">
-        <v>17.739999999999998</v>
-      </c>
-      <c r="AB16">
-        <v>11.71</v>
-      </c>
-      <c r="AC16">
-        <v>12.75</v>
-      </c>
-      <c r="AD16">
-        <v>13.3</v>
-      </c>
-      <c r="AJ16">
-        <v>12.96</v>
-      </c>
-      <c r="AK16">
-        <v>12.89</v>
-      </c>
-      <c r="AL16">
-        <v>13.23</v>
-      </c>
-      <c r="AS16">
-        <v>15.19</v>
-      </c>
-      <c r="AT16">
-        <v>15.48</v>
-      </c>
-      <c r="AU16">
-        <v>15.36</v>
-      </c>
-      <c r="BM16">
-        <v>18.04</v>
-      </c>
-      <c r="BN16">
-        <v>19.489999999999998</v>
-      </c>
-      <c r="BO16">
-        <v>18.989999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="J17" s="50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="K18">
-        <v>22.69</v>
-      </c>
-      <c r="L18">
-        <v>23.71</v>
-      </c>
-      <c r="T18">
-        <v>22.78</v>
-      </c>
-      <c r="BN18">
-        <v>20.73</v>
-      </c>
-      <c r="BO18">
-        <v>21.52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="K19">
-        <v>20.41</v>
-      </c>
-      <c r="L19">
-        <v>20.28</v>
-      </c>
-      <c r="T19">
-        <v>19.010000000000002</v>
-      </c>
-      <c r="BN19">
-        <v>18.38</v>
-      </c>
-      <c r="BO19">
-        <v>17.420000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="K20">
-        <v>14.17</v>
-      </c>
-      <c r="L20">
-        <v>14.82</v>
-      </c>
-      <c r="T20">
-        <v>16.07</v>
-      </c>
-      <c r="BN20">
-        <v>17.34</v>
-      </c>
-      <c r="BO20">
-        <v>16.87</v>
-      </c>
-    </row>
-    <row r="21" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B21">
+    <row r="28" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>0.86</v>
       </c>
-      <c r="J21">
+      <c r="J28">
         <v>0.96</v>
       </c>
-      <c r="S21">
+      <c r="S28">
         <v>0.79</v>
       </c>
-      <c r="AB21">
+      <c r="AB28">
         <v>0.79</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ28">
         <v>0.86</v>
       </c>
-      <c r="AS21">
+      <c r="AS28">
         <v>0.89</v>
       </c>
-      <c r="BD21">
+      <c r="BD28">
         <v>0.86</v>
       </c>
-      <c r="BM21">
+      <c r="BM28">
         <v>0.83</v>
       </c>
     </row>
@@ -3037,10 +4146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991D4C54-FF5D-4469-9023-992FCC96081B}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3280,6 +4389,86 @@
         <v>17</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
